--- a/sample_sheet_template.xlsx
+++ b/sample_sheet_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t xml:space="preserve">Please fill out Sheet2 for your data</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.  Race is any string that identifies that sample ethnicity/Race NOTE!!  This is case and spelling sensitive!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.  IID needs to be unique to each sample – no duplicate IIDs/sampleNames</t>
   </si>
   <si>
     <t xml:space="preserve">FID</t>
@@ -210,16 +213,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.025510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.80612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -339,6 +341,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -358,34 +365,32 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.86224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,13 +398,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -410,13 +415,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
@@ -427,13 +432,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>-9</v>
@@ -444,13 +449,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -461,13 +466,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -478,13 +483,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>-9</v>
@@ -495,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
